--- a/models/calculation engines/cbix2/outputs/default/workings_for_viu_adjustmnet_of_trade_bauxite/actual_price_determination_from_CBIX_price/bauxite_at_hand_cost_to_alumina_china_processing_factors.xlsx
+++ b/models/calculation engines/cbix2/outputs/default/workings_for_viu_adjustmnet_of_trade_bauxite/actual_price_determination_from_CBIX_price/bauxite_at_hand_cost_to_alumina_china_processing_factors.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,9 +477,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="n">
         <v>1</v>
       </c>
@@ -492,9 +490,7 @@
       <c r="E2" t="n">
         <v>12.15</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
         <v>0.92</v>
       </c>
@@ -503,9 +499,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="n">
         <v>1</v>
       </c>
@@ -518,9 +512,7 @@
       <c r="E3" t="n">
         <v>12.15</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
         <v>0.92</v>
       </c>
@@ -581,9 +573,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
+      <c r="A6" t="inlineStr"/>
       <c r="B6" t="n">
         <v>1</v>
       </c>
@@ -596,9 +586,7 @@
       <c r="E6" t="n">
         <v>12.15</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
         <v>0.92</v>
       </c>
@@ -607,9 +595,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>0</v>
-      </c>
+      <c r="A7" t="inlineStr"/>
       <c r="B7" t="n">
         <v>1</v>
       </c>
@@ -622,9 +608,7 @@
       <c r="E7" t="n">
         <v>12.15</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
         <v>0.92</v>
       </c>
@@ -633,9 +617,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A8" t="inlineStr"/>
       <c r="B8" t="n">
         <v>1</v>
       </c>
@@ -648,9 +630,7 @@
       <c r="E8" t="n">
         <v>12.15</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
         <v>0.92</v>
       </c>
@@ -659,9 +639,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A9" t="inlineStr"/>
       <c r="B9" t="n">
         <v>1</v>
       </c>
@@ -674,9 +652,7 @@
       <c r="E9" t="n">
         <v>12.15</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
         <v>0.92</v>
       </c>
@@ -685,9 +661,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>0</v>
-      </c>
+      <c r="A10" t="inlineStr"/>
       <c r="B10" t="n">
         <v>1</v>
       </c>
@@ -700,9 +674,7 @@
       <c r="E10" t="n">
         <v>12.15</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
         <v>0.92</v>
       </c>
@@ -711,9 +683,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>0</v>
-      </c>
+      <c r="A11" t="inlineStr"/>
       <c r="B11" t="n">
         <v>1</v>
       </c>
@@ -726,9 +696,7 @@
       <c r="E11" t="n">
         <v>12.15</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
         <v>0.92</v>
       </c>
@@ -789,9 +757,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>0</v>
-      </c>
+      <c r="A14" t="inlineStr"/>
       <c r="B14" t="n">
         <v>1</v>
       </c>
@@ -804,9 +770,7 @@
       <c r="E14" t="n">
         <v>12.15</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
         <v>0.92</v>
       </c>
@@ -815,9 +779,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>0</v>
-      </c>
+      <c r="A15" t="inlineStr"/>
       <c r="B15" t="n">
         <v>1</v>
       </c>
@@ -830,9 +792,7 @@
       <c r="E15" t="n">
         <v>12.15</v>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
         <v>0.92</v>
       </c>
@@ -841,9 +801,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>0</v>
-      </c>
+      <c r="A16" t="inlineStr"/>
       <c r="B16" t="n">
         <v>1</v>
       </c>
@@ -856,9 +814,7 @@
       <c r="E16" t="n">
         <v>12.15</v>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
         <v>0.92</v>
       </c>
@@ -867,9 +823,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>0</v>
-      </c>
+      <c r="A17" t="inlineStr"/>
       <c r="B17" t="n">
         <v>1</v>
       </c>
@@ -882,9 +836,7 @@
       <c r="E17" t="n">
         <v>12.15</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
         <v>0.92</v>
       </c>
@@ -919,9 +871,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>0</v>
-      </c>
+      <c r="A19" t="inlineStr"/>
       <c r="B19" t="n">
         <v>1</v>
       </c>
@@ -934,9 +884,7 @@
       <c r="E19" t="n">
         <v>12.15</v>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
         <v>0.92</v>
       </c>
@@ -971,9 +919,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>0</v>
-      </c>
+      <c r="A21" t="inlineStr"/>
       <c r="B21" t="n">
         <v>1</v>
       </c>
@@ -986,9 +932,7 @@
       <c r="E21" t="n">
         <v>12.15</v>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
         <v>0.92</v>
       </c>
@@ -997,9 +941,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>0</v>
-      </c>
+      <c r="A22" t="inlineStr"/>
       <c r="B22" t="n">
         <v>1</v>
       </c>
@@ -1012,9 +954,7 @@
       <c r="E22" t="n">
         <v>12.15</v>
       </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
         <v>0.92</v>
       </c>
@@ -1023,9 +963,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>0</v>
-      </c>
+      <c r="A23" t="inlineStr"/>
       <c r="B23" t="n">
         <v>1</v>
       </c>
@@ -1038,9 +976,7 @@
       <c r="E23" t="n">
         <v>12.15</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
         <v>0.92</v>
       </c>
@@ -1049,9 +985,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>0</v>
-      </c>
+      <c r="A24" t="inlineStr"/>
       <c r="B24" t="n">
         <v>1</v>
       </c>
@@ -1064,9 +998,7 @@
       <c r="E24" t="n">
         <v>12.15</v>
       </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
         <v>0.92</v>
       </c>
@@ -1075,9 +1007,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>0</v>
-      </c>
+      <c r="A25" t="inlineStr"/>
       <c r="B25" t="n">
         <v>1</v>
       </c>
@@ -1090,9 +1020,7 @@
       <c r="E25" t="n">
         <v>12.15</v>
       </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
         <v>0.92</v>
       </c>
@@ -1127,9 +1055,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>0</v>
-      </c>
+      <c r="A27" t="inlineStr"/>
       <c r="B27" t="n">
         <v>1</v>
       </c>
@@ -1142,9 +1068,7 @@
       <c r="E27" t="n">
         <v>12.15</v>
       </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="n">
         <v>0.92</v>
       </c>
@@ -1153,9 +1077,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>0</v>
-      </c>
+      <c r="A28" t="inlineStr"/>
       <c r="B28" t="n">
         <v>1</v>
       </c>
@@ -1168,9 +1090,7 @@
       <c r="E28" t="n">
         <v>12.15</v>
       </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
         <v>0.92</v>
       </c>
@@ -1205,9 +1125,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>0</v>
-      </c>
+      <c r="A30" t="inlineStr"/>
       <c r="B30" t="n">
         <v>1</v>
       </c>
@@ -1220,9 +1138,7 @@
       <c r="E30" t="n">
         <v>12.15</v>
       </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="n">
         <v>0.92</v>
       </c>
@@ -1231,9 +1147,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>0</v>
-      </c>
+      <c r="A31" t="inlineStr"/>
       <c r="B31" t="n">
         <v>1</v>
       </c>
@@ -1246,9 +1160,7 @@
       <c r="E31" t="n">
         <v>12.15</v>
       </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
         <v>0.92</v>
       </c>
@@ -1257,9 +1169,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>0</v>
-      </c>
+      <c r="A32" t="inlineStr"/>
       <c r="B32" t="n">
         <v>1</v>
       </c>
@@ -1272,9 +1182,7 @@
       <c r="E32" t="n">
         <v>12.15</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
         <v>0.92</v>
       </c>
@@ -1310,60 +1218,54 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>0</v>
-      </c>
+      <c r="A35" t="inlineStr"/>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
+        <v>12.15</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>0</v>
-      </c>
+      <c r="A36" t="inlineStr"/>
       <c r="B36" t="n">
         <v>1</v>
       </c>
@@ -1376,9 +1278,7 @@
       <c r="E36" t="n">
         <v>12.15</v>
       </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
         <v>0.92</v>
       </c>
@@ -1387,9 +1287,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>0</v>
-      </c>
+      <c r="A37" t="inlineStr"/>
       <c r="B37" t="n">
         <v>1</v>
       </c>
@@ -1402,9 +1300,7 @@
       <c r="E37" t="n">
         <v>12.15</v>
       </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
         <v>0.92</v>
       </c>
@@ -1417,31 +1313,29 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>12.15</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>0</v>
-      </c>
+      <c r="A39" t="inlineStr"/>
       <c r="B39" t="n">
         <v>1</v>
       </c>
@@ -1454,9 +1348,7 @@
       <c r="E39" t="n">
         <v>12.15</v>
       </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="n">
         <v>0.92</v>
       </c>
@@ -1465,9 +1357,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>0</v>
-      </c>
+      <c r="A40" t="inlineStr"/>
       <c r="B40" t="n">
         <v>1</v>
       </c>
@@ -1480,9 +1370,7 @@
       <c r="E40" t="n">
         <v>12.15</v>
       </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="n">
         <v>0.92</v>
       </c>
@@ -1491,9 +1379,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>0</v>
-      </c>
+      <c r="A41" t="inlineStr"/>
       <c r="B41" t="n">
         <v>1</v>
       </c>
@@ -1506,9 +1392,7 @@
       <c r="E41" t="n">
         <v>12.15</v>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="n">
         <v>0.92</v>
       </c>
@@ -1517,9 +1401,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>0</v>
-      </c>
+      <c r="A42" t="inlineStr"/>
       <c r="B42" t="n">
         <v>1</v>
       </c>
@@ -1532,9 +1414,7 @@
       <c r="E42" t="n">
         <v>12.15</v>
       </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="n">
         <v>0.92</v>
       </c>
@@ -1547,31 +1427,29 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>12.15</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>0</v>
-      </c>
+      <c r="A44" t="inlineStr"/>
       <c r="B44" t="n">
         <v>1</v>
       </c>
@@ -1584,9 +1462,7 @@
       <c r="E44" t="n">
         <v>12.15</v>
       </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="n">
         <v>0.92</v>
       </c>
@@ -1595,9 +1471,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>0</v>
-      </c>
+      <c r="A45" t="inlineStr"/>
       <c r="B45" t="n">
         <v>1</v>
       </c>
@@ -1610,9 +1484,7 @@
       <c r="E45" t="n">
         <v>12.15</v>
       </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="n">
         <v>0.92</v>
       </c>
@@ -1621,9 +1493,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>0</v>
-      </c>
+      <c r="A46" t="inlineStr"/>
       <c r="B46" t="n">
         <v>1</v>
       </c>
@@ -1636,13 +1506,77 @@
       <c r="E46" t="n">
         <v>12.15</v>
       </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="n">
         <v>0.92</v>
       </c>
       <c r="H46" t="n">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E47" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E48" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E49" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H49" t="n">
         <v>0.035</v>
       </c>
     </row>
